--- a/tyk/packages/tykCompetitorBambino/bambino-meta.xlsx
+++ b/tyk/packages/tykCompetitorBambino/bambino-meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/projects/wolfram-workbench/tyk/tyk/packages/tykCompetitorBambino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBB327B-5993-9847-AFAC-F0370AB99972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F40F691-EF3C-7F4C-85AB-B844186F91EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-50860" yWindow="-12940" windowWidth="28040" windowHeight="17440" xr2:uid="{A153D339-23C3-BD48-80AD-FA684721E7AA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
   <si>
     <t>Bellissimo</t>
   </si>
@@ -222,12 +222,6 @@
     <t>Dpr-XPlusUltra</t>
   </si>
   <si>
-    <t>Brf-TotalDryX</t>
-  </si>
-  <si>
-    <t>Brf-TotalDryPlus</t>
-  </si>
-  <si>
     <t>Bst-TotalDryMax</t>
   </si>
   <si>
@@ -237,12 +231,6 @@
     <t>Bst-QuadroDeluxe</t>
   </si>
   <si>
-    <t>Briefs</t>
-  </si>
-  <si>
-    <t>Brf-TotalDryOvrNght</t>
-  </si>
-  <si>
     <t>TotalDry Overnight Briefs</t>
   </si>
   <si>
@@ -255,13 +243,22 @@
     <t>totaldry-overnight-briefs</t>
   </si>
   <si>
-    <t>Bags</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
     <t>us</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>Dpr-TotalDryX</t>
+  </si>
+  <si>
+    <t>Dpr-TotalDryOvrNght</t>
+  </si>
+  <si>
+    <t>Dpr-TotalDryPlus</t>
   </si>
 </sst>
 </file>
@@ -332,7 +329,7 @@
     <tableColumn id="1" xr3:uid="{9A717D59-313D-834F-9298-E668F00EA8D8}" name="Product"/>
     <tableColumn id="2" xr3:uid="{CD0B784F-713A-5241-8958-1509152EFCF0}" name="Print Size"/>
     <tableColumn id="3" xr3:uid="{963DAB36-DB80-7A47-9A05-E050F4E390D6}" name="Path"/>
-    <tableColumn id="4" xr3:uid="{DBA67CA1-E1F7-D54F-A62B-2F84AA570CE8}" name="Bags"/>
+    <tableColumn id="4" xr3:uid="{DBA67CA1-E1F7-D54F-A62B-2F84AA570CE8}" name="Packaging"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -637,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99371E8-6919-864E-AAF3-24A49E6C2378}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>44</v>
@@ -662,18 +659,18 @@
         <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -696,7 +693,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -719,7 +716,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -742,7 +739,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -765,7 +762,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -788,7 +785,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -811,7 +808,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -834,7 +831,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -857,7 +854,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -880,7 +877,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -903,7 +900,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -926,7 +923,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -949,7 +946,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -961,7 +958,7 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
@@ -972,7 +969,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
@@ -984,7 +981,7 @@
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -995,19 +992,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
@@ -1018,22 +1015,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
         <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -1041,19 +1038,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
         <v>29</v>
@@ -1064,10 +1061,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
@@ -1076,7 +1073,7 @@
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
@@ -1087,10 +1084,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
@@ -1099,7 +1096,7 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -1110,10 +1107,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
@@ -1122,7 +1119,7 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
         <v>39</v>

--- a/tyk/packages/tykCompetitorBambino/bambino-meta.xlsx
+++ b/tyk/packages/tykCompetitorBambino/bambino-meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/projects/wolfram-workbench/tyk/tyk/packages/tykCompetitorBambino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F40F691-EF3C-7F4C-85AB-B844186F91EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB5482-3440-754F-9021-0A95F3AE8157}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50860" yWindow="-12940" windowWidth="28040" windowHeight="17440" xr2:uid="{A153D339-23C3-BD48-80AD-FA684721E7AA}"/>
+    <workbookView xWindow="-50860" yWindow="-12940" windowWidth="43120" windowHeight="25500" xr2:uid="{A153D339-23C3-BD48-80AD-FA684721E7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Diapers" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="103">
   <si>
     <t>Bellissimo</t>
   </si>
@@ -259,6 +259,90 @@
   </si>
   <si>
     <t>Dpr-TotalDryPlus</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Has Sizes</t>
+  </si>
+  <si>
+    <t>bellissimo-onesie</t>
+  </si>
+  <si>
+    <t>Os-Bellissimo</t>
+  </si>
+  <si>
+    <t>Onesies</t>
+  </si>
+  <si>
+    <t>catstronaut-onesie</t>
+  </si>
+  <si>
+    <t>magnifico-onesies</t>
+  </si>
+  <si>
+    <t>cloudee-onesie</t>
+  </si>
+  <si>
+    <t>skooldoodle-onesie</t>
+  </si>
+  <si>
+    <t>Os-Magnifico</t>
+  </si>
+  <si>
+    <t>Os-Catstronaught</t>
+  </si>
+  <si>
+    <t>Os-Cloudee</t>
+  </si>
+  <si>
+    <t>Os-Skooldoodle</t>
+  </si>
+  <si>
+    <t>Skooldoodle Onesie</t>
+  </si>
+  <si>
+    <t>Catstronaught Onesie</t>
+  </si>
+  <si>
+    <t>Cloudee Onesie</t>
+  </si>
+  <si>
+    <t>Magnifico Onesie</t>
+  </si>
+  <si>
+    <t>Bellissimo Onesie</t>
+  </si>
+  <si>
+    <t>Bottles</t>
+  </si>
+  <si>
+    <t>catstonaut-adult-baby-bottle</t>
+  </si>
+  <si>
+    <t>skooldoodle-adult-baby-bottle</t>
+  </si>
+  <si>
+    <t>total-dry-xl-personal-cleansing-wipes-3-pack</t>
+  </si>
+  <si>
+    <t>Wipes</t>
+  </si>
+  <si>
+    <t>Btl-Catstronaught</t>
+  </si>
+  <si>
+    <t>Btl-Skooldoodle</t>
+  </si>
+  <si>
+    <t>TotalDry Wipes</t>
+  </si>
+  <si>
+    <t>Skooldoodle Bottle</t>
+  </si>
+  <si>
+    <t>Catstronaught Bottle</t>
   </si>
 </sst>
 </file>
@@ -320,9 +404,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1912755F-3776-E54C-AECD-9986BDFFFC63}" name="Table1" displayName="Table1" ref="A1:G21" totalsRowShown="0">
-  <autoFilter ref="A1:G21" xr:uid="{6208EDE6-7EC6-1846-9DCC-483ED87825DD}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1912755F-3776-E54C-AECD-9986BDFFFC63}" name="Table1" displayName="Table1" ref="A1:H29" totalsRowShown="0">
+  <autoFilter ref="A1:H29" xr:uid="{6208EDE6-7EC6-1846-9DCC-483ED87825DD}"/>
+  <tableColumns count="8">
     <tableColumn id="7" xr3:uid="{BD195D36-3976-B949-B455-95961A265DA2}" name="Region"/>
     <tableColumn id="5" xr3:uid="{F425F4B5-6612-024B-BFF0-036A09FF2697}" name="Product Key"/>
     <tableColumn id="6" xr3:uid="{C338FFA3-B627-794A-8F40-2954BE8EE637}" name="Category"/>
@@ -330,6 +414,7 @@
     <tableColumn id="2" xr3:uid="{CD0B784F-713A-5241-8958-1509152EFCF0}" name="Print Size"/>
     <tableColumn id="3" xr3:uid="{963DAB36-DB80-7A47-9A05-E050F4E390D6}" name="Path"/>
     <tableColumn id="4" xr3:uid="{DBA67CA1-E1F7-D54F-A62B-2F84AA570CE8}" name="Packaging"/>
+    <tableColumn id="8" xr3:uid="{9FA7AF49-B4B1-4A4D-BEF5-EF2EA25A99AE}" name="Has Sizes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -632,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99371E8-6919-864E-AAF3-24A49E6C2378}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,9 +728,10 @@
     <col min="1" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" customWidth="1"/>
     <col min="4" max="4" width="41.5" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -667,8 +753,11 @@
       <c r="G1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -690,8 +779,11 @@
       <c r="G2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -713,8 +805,11 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -736,8 +831,11 @@
       <c r="G4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -759,8 +857,11 @@
       <c r="G5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -782,8 +883,11 @@
       <c r="G6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -805,8 +909,11 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -828,8 +935,11 @@
       <c r="G8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -851,8 +961,11 @@
       <c r="G9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -874,8 +987,11 @@
       <c r="G10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -897,8 +1013,11 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -920,8 +1039,11 @@
       <c r="G12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -943,8 +1065,11 @@
       <c r="G13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -966,8 +1091,11 @@
       <c r="G14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -989,8 +1117,11 @@
       <c r="G15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -1012,8 +1143,11 @@
       <c r="G16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1035,8 +1169,11 @@
       <c r="G17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1058,8 +1195,11 @@
       <c r="G18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -1081,8 +1221,11 @@
       <c r="G19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1104,8 +1247,11 @@
       <c r="G20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1126,6 +1272,214 @@
       </c>
       <c r="G21" t="s">
         <v>35</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tyk/packages/tykCompetitorBambino/bambino-meta.xlsx
+++ b/tyk/packages/tykCompetitorBambino/bambino-meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/projects/wolfram-workbench/tyk/tyk/packages/tykCompetitorBambino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB5482-3440-754F-9021-0A95F3AE8157}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C85063-751F-6347-BF67-CED65016EF8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-50860" yWindow="-12940" windowWidth="43120" windowHeight="25500" xr2:uid="{A153D339-23C3-BD48-80AD-FA684721E7AA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="113">
   <si>
     <t>Bellissimo</t>
   </si>
@@ -343,6 +343,36 @@
   </si>
   <si>
     <t>Catstronaught Bottle</t>
+  </si>
+  <si>
+    <t>Bloomeez</t>
+  </si>
+  <si>
+    <t>Dpr-Bloomeez-Full</t>
+  </si>
+  <si>
+    <t>bloomeez-all-over-print-diapers</t>
+  </si>
+  <si>
+    <t>cloudee-slip-on-briefs</t>
+  </si>
+  <si>
+    <t>2 Bags of 10</t>
+  </si>
+  <si>
+    <t>Cloudie Slip On Briefs</t>
+  </si>
+  <si>
+    <t>skooldoodle-slip-on-briefs</t>
+  </si>
+  <si>
+    <t>Skooldoodle Slip On Briefs</t>
+  </si>
+  <si>
+    <t>Dpr-Skooldoodle-Slip-On</t>
+  </si>
+  <si>
+    <t>Dpr-Cloudee-Slip-On</t>
   </si>
 </sst>
 </file>
@@ -404,8 +434,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1912755F-3776-E54C-AECD-9986BDFFFC63}" name="Table1" displayName="Table1" ref="A1:H29" totalsRowShown="0">
-  <autoFilter ref="A1:H29" xr:uid="{6208EDE6-7EC6-1846-9DCC-483ED87825DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1912755F-3776-E54C-AECD-9986BDFFFC63}" name="Table1" displayName="Table1" ref="A1:H32" totalsRowShown="0">
+  <autoFilter ref="A1:H32" xr:uid="{6208EDE6-7EC6-1846-9DCC-483ED87825DD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H32">
+    <sortCondition ref="F1:F32"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="7" xr3:uid="{BD195D36-3976-B949-B455-95961A265DA2}" name="Region"/>
     <tableColumn id="5" xr3:uid="{F425F4B5-6612-024B-BFF0-036A09FF2697}" name="Product Key"/>
@@ -717,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99371E8-6919-864E-AAF3-24A49E6C2378}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,7 +795,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -771,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -788,22 +821,22 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -814,19 +847,19 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -840,19 +873,19 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -866,22 +899,22 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -892,25 +925,25 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -918,22 +951,22 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -944,19 +977,19 @@
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -970,19 +1003,19 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -996,19 +1029,19 @@
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1022,22 +1055,22 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1048,22 +1081,22 @@
         <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -1074,19 +1107,19 @@
         <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1100,22 +1133,22 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1126,22 +1159,22 @@
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -1152,22 +1185,22 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -1178,25 +1211,25 @@
         <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
         <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1230,25 +1263,25 @@
         <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1256,22 +1289,22 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1282,19 +1315,19 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
         <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
         <v>75</v>
@@ -1304,26 +1337,23 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>70</v>
-      </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -1334,22 +1364,22 @@
         <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1360,22 +1390,22 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -1386,22 +1416,22 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -1412,19 +1442,19 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
         <v>75</v>
@@ -1438,48 +1468,129 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
